--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">|</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -362,7 +362,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9140BD5F-CA92-4126-BA40-A81F1B4ABA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F041ED-C43F-4025-A3DB-96096EADDE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F041ED-C43F-4025-A3DB-96096EADDE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BECD55-B756-4926-9374-5EE3C492A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BECD55-B756-4926-9374-5EE3C492A35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D006A2-3DA9-4C66-916A-888402381062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>contractNo</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -602,7 +605,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +897,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>52</v>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D006A2-3DA9-4C66-916A-888402381062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ABD4DE-EC06-434B-B0A5-B9B2B5F8848C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
@@ -897,7 +897,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>52</v>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEF730C-D69E-4636-8FFF-6506597440DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47901332-82E9-4A52-9DCC-D499EE8153A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47901332-82E9-4A52-9DCC-D499EE8153A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B264F0-FA9B-4E05-8129-BDD74EBAD1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645995EE-8637-43A6-90E4-54B9D32B1DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561B9181-3815-4510-8E74-5CFFA76B4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -305,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561B9181-3815-4510-8E74-5CFFA76B4388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF103A80-4B84-49B8-B80D-6B652B314627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case2/Auto_ContractNo_Case2_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF103A80-4B84-49B8-B80D-6B652B314627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D5E69-AB00-41E7-A0C7-750F4A68AB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
